--- a/物品使用/MyData.xlsx
+++ b/物品使用/MyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25230" windowHeight="12765"/>
+    <workbookView windowWidth="23385" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>物品ID</t>
   </si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t>50元礼包</t>
-  </si>
-  <si>
-    <t>合成碎片1</t>
-  </si>
-  <si>
-    <t>合成碎片2</t>
   </si>
 </sst>
 </file>
@@ -78,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -110,6 +104,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -117,6 +156,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -124,23 +171,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,16 +209,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,83 +247,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -275,6 +269,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -287,7 +311,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,19 +341,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,133 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +478,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -495,24 +500,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,28 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,6 +551,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -589,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +595,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,10 +1072,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1245,39 +1239,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="8">
-        <v>12001</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="8">
-        <v>6002</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>100</v>
-      </c>
+    <row r="10" ht="16.5" spans="1:4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="8">
-        <v>12002</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="8">
-        <v>6003</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>100</v>
-      </c>
+    <row r="11" ht="16.5" spans="1:4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" ht="16.5" spans="1:4">
       <c r="A12" s="8"/>
@@ -1285,18 +1257,6 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" ht="16.5" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/物品使用/MyData.xlsx
+++ b/物品使用/MyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23385" windowHeight="9210"/>
+    <workbookView windowWidth="26175" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>物品ID</t>
   </si>
@@ -65,6 +65,60 @@
   </si>
   <si>
     <t>50元礼包</t>
+  </si>
+  <si>
+    <t>锁定</t>
+  </si>
+  <si>
+    <t>冰冻</t>
+  </si>
+  <si>
+    <t>狂暴</t>
+  </si>
+  <si>
+    <t>核弹</t>
+  </si>
+  <si>
+    <t>新手炮</t>
+  </si>
+  <si>
+    <t>航海先锋</t>
+  </si>
+  <si>
+    <t>梦幻蝶影</t>
+  </si>
+  <si>
+    <t>自由星河</t>
+  </si>
+  <si>
+    <t>帝王之姿</t>
+  </si>
+  <si>
+    <t>红粉佳人</t>
+  </si>
+  <si>
+    <t>新手炮座</t>
+  </si>
+  <si>
+    <t>深海堡垒</t>
+  </si>
+  <si>
+    <t>雷霆王座</t>
+  </si>
+  <si>
+    <t>水神宝座</t>
+  </si>
+  <si>
+    <t>灼日王座</t>
+  </si>
+  <si>
+    <t>莲花宝座</t>
+  </si>
+  <si>
+    <t>天穹之翼</t>
+  </si>
+  <si>
+    <t>冰蓝之翼</t>
   </si>
 </sst>
 </file>
@@ -72,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -104,6 +158,87 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -113,112 +248,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,20 +271,36 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -269,13 +323,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,73 +455,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,91 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,6 +586,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -548,15 +611,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1239,23 +1293,328 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+    <row r="10" ht="16.5" spans="1:5">
+      <c r="A10" s="8">
+        <v>3001</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D10" s="8">
+        <v>500</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:5">
+      <c r="A11" s="8">
+        <v>3002</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:5">
+      <c r="A12" s="8">
+        <v>3003</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:5">
+      <c r="A13" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:5">
+      <c r="A14" s="8">
+        <v>4001</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:5">
+      <c r="A15" s="8">
+        <v>6001</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D15" s="8">
+        <v>500</v>
+      </c>
+      <c r="E15" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:5">
+      <c r="A16" s="8">
+        <v>6002</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:5">
+      <c r="A17" s="8">
+        <v>6003</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:5">
+      <c r="A18" s="8">
+        <v>6004</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D18" s="8">
+        <v>500</v>
+      </c>
+      <c r="E18" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:5">
+      <c r="A19" s="8">
+        <v>6005</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:5">
+      <c r="A20" s="8">
+        <v>6006</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:5">
+      <c r="A21" s="8">
+        <v>7001</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D21" s="8">
+        <v>500</v>
+      </c>
+      <c r="E21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:5">
+      <c r="A22" s="8">
+        <v>7002</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:5">
+      <c r="A23" s="8">
+        <v>7003</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:5">
+      <c r="A24" s="8">
+        <v>7004</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D24" s="8">
+        <v>500</v>
+      </c>
+      <c r="E24" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:5">
+      <c r="A25" s="8">
+        <v>7005</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:5">
+      <c r="A26" s="8">
+        <v>7006</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:5">
+      <c r="A27" s="8">
+        <v>8001</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:5">
+      <c r="A28" s="8">
+        <v>8002</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
